--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -181,6 +181,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hesham Mohamed Abdelrahman Selim Ataia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود محمد عبدالحكيم محمد الامين الصادق العايدى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Mohamed Abd El Hakeem</x:t>
   </x:si>
   <x:si>
     <x:t>1230253</x:t>
@@ -323,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -623,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -631,7 +640,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="39.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="49.380625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1256,7 +1265,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6129081829</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1288,7 +1297,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45912.6129081829</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1337,6 +1346,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -136,6 +136,15 @@
   </x:si>
   <x:si>
     <x:t>Sama Tarik Mahmoud Gaballah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله اشرف رأفت حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Ashraf Raafat Hassanein</x:t>
   </x:si>
   <x:si>
     <x:t>4250182</x:t>
@@ -332,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1105,7 +1114,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6129081829</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45912.6129081829</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1378,6 +1387,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -147,6 +147,15 @@
     <x:t>Abdullah Ashraf Raafat Hassanein</x:t>
   </x:si>
   <x:si>
+    <x:t>4250181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على عبدالرحمن محمد ابراهيم حمزه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Abdul Rahman Mohamed Ibrahim Hamza</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250182</x:t>
   </x:si>
   <x:si>
@@ -192,6 +201,15 @@
     <x:t>Mohamed Hesham Mohamed Abdelrahman Selim Ataia</x:t>
   </x:si>
   <x:si>
+    <x:t>1240143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود احمد محمود احمد شكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Ahmed Mahmoud Ahmed shokry</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240184</x:t>
   </x:si>
   <x:si>
@@ -217,6 +235,15 @@
   </x:si>
   <x:si>
     <x:t>Hunya haytham mahmoud  soltan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ابراهيم سعيد عيد حسانين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ibrahem</x:t>
   </x:si>
   <x:si>
     <x:t>4250202</x:t>
@@ -341,7 +368,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +668,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1146,7 +1173,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1178,7 +1205,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1210,7 +1237,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1242,7 +1269,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1274,7 +1301,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1306,7 +1333,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1338,7 +1365,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6129081829</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1370,7 +1397,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1402,7 +1429,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45912.6129081829</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1419,6 +1446,102 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45912.6084797454</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45919.9698933218</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -163,6 +163,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Mohamed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر هانى محمد حسن محمد سعيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hani Mohammed Hassan Mohammed Saeed</x:t>
   </x:si>
   <x:si>
     <x:t>1240198</x:t>
@@ -368,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -668,7 +677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1237,7 +1246,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1269,7 +1278,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1301,7 +1310,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1333,7 +1342,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1365,7 +1374,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45920.0017404745</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1397,7 +1406,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1429,7 +1438,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.6129081829</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45912.6129081829</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1542,6 +1551,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Abu Bakr Atef Mahmoud Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد خالد مقبولي محمد عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed kahled makbouly mohamed abdo</x:t>
   </x:si>
   <x:si>
     <x:t>4250165</x:t>
@@ -377,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -677,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -832,7 +841,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45925.438408831</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -864,7 +873,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.6091764236</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -896,7 +905,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.6115738079</x:v>
+        <x:v>45912.6091764236</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -928,7 +937,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45912.6115738079</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -960,7 +969,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.5984533218</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -992,7 +1001,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.6088537847</x:v>
+        <x:v>45912.5984533218</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1024,7 +1033,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.9408006134</x:v>
+        <x:v>45912.6088537847</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1056,7 +1065,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.5991975347</x:v>
+        <x:v>45912.9408006134</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1084,9 +1093,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45918.3505082176</x:v>
+        <x:v>45912.5991975347</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1109,16 +1120,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45914.4494589468</x:v>
+        <x:v>45918.3505082176</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1150,7 +1159,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45914.4494589468</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1182,7 +1191,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1214,7 +1223,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1246,7 +1255,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1278,7 +1287,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45920.0017404745</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.6129081829</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45912.6129081829</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1583,6 +1592,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -1511,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.6129081829</x:v>
+        <x:v>45927.6668926736</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -138,15 +138,6 @@
     <x:t>زينة شادي عبداللطيف الشاذلي</x:t>
   </x:si>
   <x:si>
-    <x:t>1240075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما طارق محمود جاب الله سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Tarik Mahmoud Gaballah</x:t>
-  </x:si>
-  <x:si>
     <x:t>4250179</x:t>
   </x:si>
   <x:si>
@@ -172,6 +163,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Mohamed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>4250208</x:t>
@@ -1159,7 +1159,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.4494589468</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1191,7 +1191,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1223,7 +1223,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1255,7 +1255,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45927.7643141204</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>

--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -1511,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.6668926736</x:v>
+        <x:v>45928.2687730324</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -201,6 +201,15 @@
     <x:t>Loujayna Hesham Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ايمن نبيل ابراهيم حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ayman Nabil Ibrahim Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250212</x:t>
   </x:si>
   <x:si>
@@ -244,6 +253,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Karim Mohamed Ahmed Zayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى كمال محمد جمال عبدالحميد خالد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moustafa Kamal Mohamed Gamal Abelhamid Khalid</x:t>
   </x:si>
   <x:si>
     <x:t>1230275</x:t>
@@ -386,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1383,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45929.5640316782</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1415,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1447,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45920.0017404745</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1479,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1511,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45928.2687730324</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1543,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45929.4464447569</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45929.3779826389</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1607,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1624,6 +1642,70 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45919.9698933218</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Abu Bakr Atef Mahmoud Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ايمن احمد احمد الرملي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Ayman Ahmed Ahmed Alramly</x:t>
   </x:si>
   <x:si>
     <x:t>1240283</x:t>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -859,7 +868,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45925.438408831</x:v>
+        <x:v>45930.3388559375</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -891,7 +900,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45925.438408831</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -923,7 +932,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.6091764236</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -955,7 +964,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.6115738079</x:v>
+        <x:v>45912.6091764236</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -987,7 +996,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45912.6115738079</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1019,7 +1028,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.5984533218</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1051,7 +1060,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.6088537847</x:v>
+        <x:v>45912.5984533218</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.9408006134</x:v>
+        <x:v>45912.6088537847</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.5991975347</x:v>
+        <x:v>45912.9408006134</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1143,9 +1152,11 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45918.3505082176</x:v>
+        <x:v>45912.5991975347</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1168,16 +1179,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45918.3505082176</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1209,7 +1218,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1241,7 +1250,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1273,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.7643141204</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1305,7 +1314,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45927.7643141204</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1337,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45929.5640316782</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45929.5640316782</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45920.0017404745</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45929.4464447569</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45929.3779826389</x:v>
+        <x:v>45929.4464447569</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45929.3779826389</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1715,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Basil Mohamed Shawqi Darwish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2230016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جمانة جمال شريف فاضل</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> GUMANA GAMAL SHARIF FADHEL</x:t>
   </x:si>
   <x:si>
     <x:t>1230172</x:t>
@@ -413,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1060,7 +1051,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.5984533218</x:v>
+        <x:v>45912.6088537847</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1092,7 +1083,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.6088537847</x:v>
+        <x:v>45912.9408006134</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1124,7 +1115,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.9408006134</x:v>
+        <x:v>45912.5991975347</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1152,11 +1143,9 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45912.5991975347</x:v>
+        <x:v>45918.3505082176</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1179,14 +1168,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45918.3505082176</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1218,7 +1209,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1250,7 +1241,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1282,7 +1273,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45927.7643141204</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1314,7 +1305,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.7643141204</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,7 +1337,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,7 +1369,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45929.5640316782</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1442,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45929.5640316782</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1474,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45920.0017404745</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45929.4464447569</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45929.4464447569</x:v>
+        <x:v>45929.3779826389</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45929.3779826389</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1715,38 +1706,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45917.311553206</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -114,6 +114,15 @@
     <x:t>Jana Mohamed Sayed Abdelaziz</x:t>
   </x:si>
   <x:si>
+    <x:t>1240294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنى حسام الدين احمد عبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana HossamEldin Ahmed Abdelfattah</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230185</x:t>
   </x:si>
   <x:si>
@@ -199,15 +208,6 @@
   </x:si>
   <x:si>
     <x:t>Loujayna Hesham Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ايمن نبيل ابراهيم حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ayman Nabil Ibrahim Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4250212</x:t>
@@ -1083,7 +1083,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.9408006134</x:v>
+        <x:v>45927.4454287384</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1115,7 +1115,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.5991975347</x:v>
+        <x:v>45912.9408006134</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1143,9 +1143,11 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45918.3505082176</x:v>
+        <x:v>45912.5991975347</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1168,16 +1170,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45918.3505082176</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1209,7 +1209,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1241,7 +1241,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1273,7 +1273,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.7643141204</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1305,7 +1305,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45927.7643141204</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1337,7 +1337,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1369,7 +1369,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1401,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45929.5640316782</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>

--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Basil Mohamed Shawqi Darwish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2230016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جمانة جمال شريف فاضل</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> GUMANA GAMAL SHARIF FADHEL</x:t>
   </x:si>
   <x:si>
     <x:t>1230172</x:t>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1051,7 +1060,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.6088537847</x:v>
+        <x:v>45933.6576677083</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4454287384</x:v>
+        <x:v>45912.6088537847</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.9408006134</x:v>
+        <x:v>45927.4454287384</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1147,7 +1156,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.5991975347</x:v>
+        <x:v>45912.9408006134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1175,9 +1184,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45918.3505082176</x:v>
+        <x:v>45912.5991975347</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1200,16 +1211,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45918.3505082176</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1241,7 +1250,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1273,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1305,7 +1314,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.7643141204</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1337,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45927.7643141204</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6125490394</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6111439815</x:v>
+        <x:v>45912.6125490394</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45912.6111439815</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45920.0017404745</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.7153993866</x:v>
+        <x:v>45920.0017404745</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45929.4464447569</x:v>
+        <x:v>45918.7153993866</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45929.3779826389</x:v>
+        <x:v>45929.4464447569</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.6084797454</x:v>
+        <x:v>45929.3779826389</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45912.6084797454</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1715,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES201_Tutorial-35877.xlsx
+++ b/downloaded_files/EPES201_Tutorial-35877.xlsx
@@ -144,7 +144,7 @@
     <x:t>1240194</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">زياد عمر احمد عمر </x:t>
+    <x:t>زياد عمر احمد عمر محمود السيد</x:t>
   </x:si>
   <x:si>
     <x:t>ZEYAD OMAR AHMED OMAR</x:t>
